--- a/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Gameplay_ActorAttrType&CardType&TrinketSuitEffect_250826.xlsx
+++ b/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Gameplay_ActorAttrType&CardType&TrinketSuitEffect_250826.xlsx
@@ -61,7 +61,7 @@
     <t>体质越高，唤醒体的最大生命就越高。\n守密人调查等级越高，体质对唤醒体的最大生命的影响越强。</t>
   </si>
   <si>
-    <t>체력이 높을수록 각성체의 최대 HP가 상승합니다.</t>
+    <t>체력이 높을수록 각성체의 최대 HP가 상승합니다.\n수호자 조사 등급이 높을수록 체력이 각성체의 최대 HP에 미치는 영향이 더욱 강해집니다.</t>
   </si>
   <si>
     <t>ActorAttrType_18116_Text</t>
@@ -397,8 +397,7 @@
     <t>每消耗 1 算力获得 {s1} 点银钥能量。随着该属性增加，额外提高的银钥能量会逐渐衰减。</t>
   </si>
   <si>
-    <t xml:space="preserve">산출력 1을 소모할 때마다 은열쇠 에너지를 {s1} 획득합니다. 속성값이 높아질 수록 추가로 얻는 은열쇠 에너지가 점차 감소합니다.
-</t>
+    <t>산출력 1을 소모할 때마다 은열쇠 에너지를 {s1} 획득합니다. 속성값이 높아질 수록 추가로 얻는 은열쇠 에너지가 점차 감소합니다.</t>
   </si>
   <si>
     <t>ActorAttrType_21322_Text</t>
@@ -872,27 +871,27 @@
     <t>技能2等级</t>
   </si>
   <si>
+    <t>스킬2 레벨</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18121_AttributeUpText</t>
+  </si>
+  <si>
+    <t>abnf</t>
+  </si>
+  <si>
+    <t>技能2等级+{s1}</t>
+  </si>
+  <si>
     <t>스킬2 레벨 +{s1}</t>
   </si>
   <si>
-    <t>ActorAttrType_18121_AttributeUpText</t>
-  </si>
-  <si>
-    <t>abnf</t>
-  </si>
-  <si>
-    <t>技能2等级+{s1}</t>
-  </si>
-  <si>
     <t>ActorAttrType_18121_AttributeDesc</t>
   </si>
   <si>
     <t>abne</t>
   </si>
   <si>
-    <t>스킬2 레벨</t>
-  </si>
-  <si>
     <t>ActorAttrType_18108_Text</t>
   </si>
   <si>
@@ -1094,115 +1093,115 @@
     <t>脆弱百分比修正</t>
   </si>
   <si>
+    <t>손상 비율 보정</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18136_Text</t>
+  </si>
+  <si>
+    <t>abnZ</t>
+  </si>
+  <si>
+    <t>承受伤害固定值修正</t>
+  </si>
+  <si>
+    <t>받는 피해 고정값 보정</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18119_Text</t>
+  </si>
+  <si>
+    <t>abna</t>
+  </si>
+  <si>
+    <t>承受伤害百分比修正</t>
+  </si>
+  <si>
+    <t>받는 피해 보정</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18146_Text</t>
+  </si>
+  <si>
+    <t>aboD</t>
+  </si>
+  <si>
+    <t>承受治疗固定值修正</t>
+  </si>
+  <si>
+    <t>받는 치유 고정값 보정</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18164_Text</t>
+  </si>
+  <si>
+    <t>abpC</t>
+  </si>
+  <si>
+    <t>承受治疗百分比修正</t>
+  </si>
+  <si>
+    <t>받는 치유 보정</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18125_Text</t>
+  </si>
+  <si>
+    <t>abns</t>
+  </si>
+  <si>
+    <t>承受护盾固定值修正</t>
+  </si>
+  <si>
+    <t>받는 방어막 고정값 보정</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18111_Text</t>
+  </si>
+  <si>
+    <t>abmC</t>
+  </si>
+  <si>
+    <t>承受护盾百分比修正</t>
+  </si>
+  <si>
+    <t>받는 방어막 보정</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18156_Text</t>
+  </si>
+  <si>
+    <t>abpe</t>
+  </si>
+  <si>
+    <t>承受狂气固定值修正</t>
+  </si>
+  <si>
+    <t>받는 광기 생성량 고정값 보정</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18133_Text</t>
+  </si>
+  <si>
+    <t>abnQ</t>
+  </si>
+  <si>
+    <t>承受狂气百分比修正</t>
+  </si>
+  <si>
+    <t>받는 광기 생성량 보정</t>
+  </si>
+  <si>
+    <t>ActorAttrType_18166_Text</t>
+  </si>
+  <si>
+    <t>abpI</t>
+  </si>
+  <si>
+    <t>易伤百分比修正</t>
+  </si>
+  <si>
     <t>취약 비율 보정</t>
-  </si>
-  <si>
-    <t>ActorAttrType_18136_Text</t>
-  </si>
-  <si>
-    <t>abnZ</t>
-  </si>
-  <si>
-    <t>承受伤害固定值修正</t>
-  </si>
-  <si>
-    <t>받는 피해 고정값 보정</t>
-  </si>
-  <si>
-    <t>ActorAttrType_18119_Text</t>
-  </si>
-  <si>
-    <t>abna</t>
-  </si>
-  <si>
-    <t>承受伤害百分比修正</t>
-  </si>
-  <si>
-    <t>받는 피해 보정</t>
-  </si>
-  <si>
-    <t>ActorAttrType_18146_Text</t>
-  </si>
-  <si>
-    <t>aboD</t>
-  </si>
-  <si>
-    <t>承受治疗固定值修正</t>
-  </si>
-  <si>
-    <t>받는 치유 고정값 보정</t>
-  </si>
-  <si>
-    <t>ActorAttrType_18164_Text</t>
-  </si>
-  <si>
-    <t>abpC</t>
-  </si>
-  <si>
-    <t>承受治疗百分比修正</t>
-  </si>
-  <si>
-    <t>받는 치유 보정</t>
-  </si>
-  <si>
-    <t>ActorAttrType_18125_Text</t>
-  </si>
-  <si>
-    <t>abns</t>
-  </si>
-  <si>
-    <t>承受护盾固定值修正</t>
-  </si>
-  <si>
-    <t>받는 방어막 고정값 보정</t>
-  </si>
-  <si>
-    <t>ActorAttrType_18111_Text</t>
-  </si>
-  <si>
-    <t>abmC</t>
-  </si>
-  <si>
-    <t>承受护盾百分比修正</t>
-  </si>
-  <si>
-    <t>받는 방어막 보정</t>
-  </si>
-  <si>
-    <t>ActorAttrType_18156_Text</t>
-  </si>
-  <si>
-    <t>abpe</t>
-  </si>
-  <si>
-    <t>承受狂气固定值修正</t>
-  </si>
-  <si>
-    <t>받는 광기 생성량 고정값 보정</t>
-  </si>
-  <si>
-    <t>ActorAttrType_18133_Text</t>
-  </si>
-  <si>
-    <t>abnQ</t>
-  </si>
-  <si>
-    <t>承受狂气百分比修正</t>
-  </si>
-  <si>
-    <t>받는 광기 생성량 보정</t>
-  </si>
-  <si>
-    <t>ActorAttrType_18166_Text</t>
-  </si>
-  <si>
-    <t>abpI</t>
-  </si>
-  <si>
-    <t>易伤百分比修正</t>
-  </si>
-  <si>
-    <t>손상 비율 보정</t>
   </si>
   <si>
     <t>ActorAttrType_18132_Text</t>
@@ -2331,7 +2330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2341,8 +2340,12 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -2368,31 +2371,35 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2621,7 +2628,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>8.0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2630,13 +2637,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -2648,7 +2656,7 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8.0</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2657,13 +2665,14 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="J2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -2675,7 +2684,7 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>8.0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2684,13 +2693,14 @@
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -2702,7 +2712,7 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>9.0</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2711,13 +2721,14 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="J4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -2729,7 +2740,7 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>9.0</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2738,13 +2749,14 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="J5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -2756,7 +2768,7 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>9.0</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2765,13 +2777,14 @@
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="J6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -2783,7 +2796,7 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>10.0</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2792,13 +2805,14 @@
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="J7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -2810,7 +2824,7 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>10.0</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2819,13 +2833,14 @@
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="J8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -2837,7 +2852,7 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>11.0</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2846,13 +2861,14 @@
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -2864,7 +2880,7 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>11.0</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2873,13 +2889,14 @@
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="J10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -2891,7 +2908,7 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>12.0</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2900,13 +2917,14 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="J11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -2918,7 +2936,7 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>12.0</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2927,13 +2945,14 @@
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -2945,7 +2964,7 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>13.0</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -2954,13 +2973,14 @@
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="J13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -2972,7 +2992,7 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>13.0</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2981,13 +3001,14 @@
       <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="J14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -2999,7 +3020,7 @@
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>14.0</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3008,13 +3029,14 @@
       <c r="F15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="J15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -3026,7 +3048,7 @@
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>14.0</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3035,13 +3057,14 @@
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>60</v>
       </c>
+      <c r="J16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -3053,7 +3076,7 @@
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>15.0</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3062,13 +3085,14 @@
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="J17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -3080,7 +3104,7 @@
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>15.0</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3089,13 +3113,14 @@
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="J18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -3107,7 +3132,7 @@
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>16.0</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3116,13 +3141,14 @@
       <c r="F19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="J19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -3134,7 +3160,7 @@
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>16.0</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3143,13 +3169,14 @@
       <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="J20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -3161,7 +3188,7 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>16.0</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3170,13 +3197,14 @@
       <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="J21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
@@ -3188,7 +3216,7 @@
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>17.0</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3197,13 +3225,14 @@
       <c r="F22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="J22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -3215,7 +3244,7 @@
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>18.0</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3224,13 +3253,14 @@
       <c r="F23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="J23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -3242,7 +3272,7 @@
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>18.0</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3251,13 +3281,14 @@
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>92</v>
       </c>
+      <c r="J24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -3269,7 +3300,7 @@
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>19.0</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3278,13 +3309,14 @@
       <c r="F25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="J25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
@@ -3296,7 +3328,7 @@
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>19.0</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3305,13 +3337,14 @@
       <c r="F26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="J26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -3323,7 +3356,7 @@
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>19.0</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3332,13 +3365,14 @@
       <c r="F27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>104</v>
       </c>
+      <c r="J27" s="5"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -3350,7 +3384,7 @@
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>20.0</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -3359,13 +3393,14 @@
       <c r="F28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="J28" s="5"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -3377,7 +3412,7 @@
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>20.0</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3386,13 +3421,14 @@
       <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="J29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
@@ -3404,7 +3440,7 @@
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>20.0</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3413,13 +3449,14 @@
       <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="6" t="s">
         <v>116</v>
       </c>
+      <c r="J30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
@@ -3431,7 +3468,7 @@
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>21.0</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3440,13 +3477,14 @@
       <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="J31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -3458,7 +3496,7 @@
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>21.0</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3467,13 +3505,14 @@
       <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="5" t="s">
         <v>124</v>
       </c>
+      <c r="J32" s="5"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
@@ -3485,7 +3524,7 @@
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>21.0</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3494,13 +3533,14 @@
       <c r="F33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="6" t="s">
         <v>128</v>
       </c>
+      <c r="J33" s="5"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
@@ -3512,7 +3552,7 @@
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>22.0</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3521,13 +3561,14 @@
       <c r="F34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3" t="s">
+      <c r="G34" s="3"/>
+      <c r="H34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="J34" s="5"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
@@ -3539,7 +3580,7 @@
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>23.0</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3548,13 +3589,14 @@
       <c r="F35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="3"/>
+      <c r="H35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="5" t="s">
         <v>135</v>
       </c>
+      <c r="J35" s="5"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
@@ -3566,7 +3608,7 @@
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>23.0</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3575,13 +3617,14 @@
       <c r="F36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="3"/>
+      <c r="H36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="J36" s="5"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
@@ -3593,7 +3636,7 @@
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>23.0</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -3602,13 +3645,14 @@
       <c r="F37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="J37" s="5"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
@@ -3620,7 +3664,7 @@
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>24.0</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3629,13 +3673,14 @@
       <c r="F38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3" t="s">
+      <c r="G38" s="3"/>
+      <c r="H38" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="J38" s="5"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
@@ -3647,7 +3692,7 @@
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>24.0</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3656,13 +3701,14 @@
       <c r="F39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="3"/>
+      <c r="H39" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="J39" s="5"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
@@ -3674,7 +3720,7 @@
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>24.0</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3683,13 +3729,14 @@
       <c r="F40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3" t="s">
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="6" t="s">
         <v>155</v>
       </c>
+      <c r="J40" s="5"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
@@ -3701,7 +3748,7 @@
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>25.0</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3710,13 +3757,14 @@
       <c r="F41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3" t="s">
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="5" t="s">
         <v>159</v>
       </c>
+      <c r="J41" s="5"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
@@ -3728,7 +3776,7 @@
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>25.0</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3737,13 +3785,14 @@
       <c r="F42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="5" t="s">
         <v>159</v>
       </c>
+      <c r="J42" s="5"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -3755,7 +3804,7 @@
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>25.0</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3764,13 +3813,14 @@
       <c r="F43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="5" t="s">
         <v>166</v>
       </c>
+      <c r="J43" s="5"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -3782,7 +3832,7 @@
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>26.0</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3791,13 +3841,14 @@
       <c r="F44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="3"/>
+      <c r="H44" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="5" t="s">
         <v>170</v>
       </c>
+      <c r="J44" s="5"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -3809,7 +3860,7 @@
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>26.0</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -3818,13 +3869,14 @@
       <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="3"/>
+      <c r="H45" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="5" t="s">
         <v>174</v>
       </c>
+      <c r="J45" s="5"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
@@ -3836,7 +3888,7 @@
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>26.0</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3845,13 +3897,14 @@
       <c r="F46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="3"/>
+      <c r="H46" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="5" t="s">
         <v>178</v>
       </c>
+      <c r="J46" s="5"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
@@ -3863,7 +3916,7 @@
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>27.0</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3872,13 +3925,14 @@
       <c r="F47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="J47" s="5"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -3890,7 +3944,7 @@
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>27.0</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -3899,13 +3953,14 @@
       <c r="F48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3" t="s">
+      <c r="G48" s="3"/>
+      <c r="H48" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="5" t="s">
         <v>186</v>
       </c>
+      <c r="J48" s="5"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -3917,7 +3972,7 @@
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>27.0</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -3926,13 +3981,14 @@
       <c r="F49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="3" t="s">
+      <c r="G49" s="3"/>
+      <c r="H49" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="5" t="s">
         <v>190</v>
       </c>
+      <c r="J49" s="5"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
@@ -3944,7 +4000,7 @@
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>28.0</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -3953,13 +4009,14 @@
       <c r="F50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="5" t="s">
         <v>194</v>
       </c>
+      <c r="J50" s="5"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
@@ -3971,7 +4028,7 @@
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>28.0</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -3980,13 +4037,14 @@
       <c r="F51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="3" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="5" t="s">
         <v>198</v>
       </c>
+      <c r="J51" s="5"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
@@ -3998,7 +4056,7 @@
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>29.0</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4007,13 +4065,14 @@
       <c r="F52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="J52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
@@ -4025,7 +4084,7 @@
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>29.0</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4034,13 +4093,14 @@
       <c r="F53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="3"/>
+      <c r="H53" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="5" t="s">
         <v>206</v>
       </c>
+      <c r="J53" s="5"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
@@ -4052,7 +4112,7 @@
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>29.0</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4061,13 +4121,14 @@
       <c r="F54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="3" t="s">
+      <c r="G54" s="3"/>
+      <c r="H54" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="5" t="s">
         <v>202</v>
       </c>
+      <c r="J54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -4079,7 +4140,7 @@
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>30.0</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4088,13 +4149,14 @@
       <c r="F55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="3" t="s">
+      <c r="G55" s="3"/>
+      <c r="H55" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="5" t="s">
         <v>212</v>
       </c>
+      <c r="J55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -4106,7 +4168,7 @@
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>30.0</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4115,13 +4177,14 @@
       <c r="F56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="3"/>
+      <c r="H56" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="5" t="s">
         <v>216</v>
       </c>
+      <c r="J56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
@@ -4133,7 +4196,7 @@
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>30.0</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4142,13 +4205,14 @@
       <c r="F57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="3" t="s">
+      <c r="G57" s="3"/>
+      <c r="H57" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="5" t="s">
         <v>220</v>
       </c>
+      <c r="J57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
@@ -4160,7 +4224,7 @@
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>31.0</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4169,13 +4233,14 @@
       <c r="F58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="3" t="s">
+      <c r="G58" s="3"/>
+      <c r="H58" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="5" t="s">
         <v>224</v>
       </c>
+      <c r="J58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
@@ -4187,7 +4252,7 @@
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>31.0</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4196,13 +4261,14 @@
       <c r="F59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="3" t="s">
+      <c r="G59" s="3"/>
+      <c r="H59" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="5" t="s">
         <v>228</v>
       </c>
+      <c r="J59" s="5"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
@@ -4214,7 +4280,7 @@
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>31.0</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4223,13 +4289,14 @@
       <c r="F60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="3" t="s">
+      <c r="G60" s="3"/>
+      <c r="H60" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="5" t="s">
         <v>232</v>
       </c>
+      <c r="J60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
@@ -4241,7 +4308,7 @@
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>32.0</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4250,13 +4317,14 @@
       <c r="F61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="3" t="s">
+      <c r="G61" s="3"/>
+      <c r="H61" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="5" t="s">
         <v>236</v>
       </c>
+      <c r="J61" s="5"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
@@ -4268,7 +4336,7 @@
       <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>32.0</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4277,13 +4345,14 @@
       <c r="F62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3" t="s">
+      <c r="G62" s="3"/>
+      <c r="H62" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="5" t="s">
         <v>240</v>
       </c>
+      <c r="J62" s="5"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
@@ -4295,7 +4364,7 @@
       <c r="C63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>32.0</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4304,13 +4373,14 @@
       <c r="F63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="3" t="s">
+      <c r="G63" s="3"/>
+      <c r="H63" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="5" t="s">
         <v>236</v>
       </c>
+      <c r="J63" s="5"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
@@ -4322,7 +4392,7 @@
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>33.0</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -4331,13 +4401,14 @@
       <c r="F64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="3" t="s">
+      <c r="G64" s="3"/>
+      <c r="H64" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="5" t="s">
         <v>246</v>
       </c>
+      <c r="J64" s="5"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
@@ -4349,7 +4420,7 @@
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>33.0</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -4358,13 +4429,14 @@
       <c r="F65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="3" t="s">
+      <c r="G65" s="3"/>
+      <c r="H65" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="5" t="s">
         <v>250</v>
       </c>
+      <c r="J65" s="5"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
@@ -4376,7 +4448,7 @@
       <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>33.0</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -4385,13 +4457,14 @@
       <c r="F66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="3" t="s">
+      <c r="G66" s="3"/>
+      <c r="H66" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="5" t="s">
         <v>246</v>
       </c>
+      <c r="J66" s="5"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
@@ -4403,7 +4476,7 @@
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>34.0</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4412,13 +4485,14 @@
       <c r="F67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="3" t="s">
+      <c r="G67" s="3"/>
+      <c r="H67" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="I67" s="5" t="s">
         <v>256</v>
       </c>
+      <c r="J67" s="5"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
@@ -4430,7 +4504,7 @@
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>34.0</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -4439,13 +4513,14 @@
       <c r="F68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="3" t="s">
+      <c r="G68" s="3"/>
+      <c r="H68" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="I68" s="5" t="s">
         <v>260</v>
       </c>
+      <c r="J68" s="5"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
@@ -4457,7 +4532,7 @@
       <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>34.0</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4466,13 +4541,14 @@
       <c r="F69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="3" t="s">
+      <c r="G69" s="3"/>
+      <c r="H69" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="5" t="s">
         <v>256</v>
       </c>
+      <c r="J69" s="5"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
@@ -4484,7 +4560,7 @@
       <c r="C70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>35.0</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -4493,13 +4569,14 @@
       <c r="F70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="3" t="s">
+      <c r="G70" s="3"/>
+      <c r="H70" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="I70" s="5" t="s">
         <v>266</v>
       </c>
+      <c r="J70" s="5"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
@@ -4511,7 +4588,7 @@
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>35.0</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -4520,13 +4597,14 @@
       <c r="F71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="3" t="s">
+      <c r="G71" s="3"/>
+      <c r="H71" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="5" t="s">
         <v>270</v>
       </c>
+      <c r="J71" s="5"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
@@ -4538,7 +4616,7 @@
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>35.0</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4547,13 +4625,14 @@
       <c r="F72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="3" t="s">
+      <c r="G72" s="3"/>
+      <c r="H72" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I72" s="4" t="s">
+      <c r="I72" s="5" t="s">
         <v>266</v>
       </c>
+      <c r="J72" s="5"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
@@ -4565,7 +4644,7 @@
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>36.0</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -4574,13 +4653,14 @@
       <c r="F73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="3" t="s">
+      <c r="G73" s="3"/>
+      <c r="H73" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="I73" s="5" t="s">
         <v>276</v>
       </c>
+      <c r="J73" s="5"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
@@ -4592,7 +4672,7 @@
       <c r="C74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>36.0</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4601,13 +4681,14 @@
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="3" t="s">
+      <c r="G74" s="3"/>
+      <c r="H74" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="I74" s="4" t="s">
+      <c r="I74" s="5" t="s">
         <v>280</v>
       </c>
+      <c r="J74" s="5"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
@@ -4619,7 +4700,7 @@
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>36.0</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4628,13 +4709,14 @@
       <c r="F75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="3" t="s">
+      <c r="G75" s="3"/>
+      <c r="H75" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="5" t="s">
         <v>276</v>
       </c>
+      <c r="J75" s="5"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
@@ -4646,7 +4728,7 @@
       <c r="C76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>37.0</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -4655,13 +4737,14 @@
       <c r="F76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="3" t="s">
+      <c r="G76" s="3"/>
+      <c r="H76" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="6" t="s">
         <v>286</v>
       </c>
+      <c r="J76" s="5"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
@@ -4673,7 +4756,7 @@
       <c r="C77" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>37.0</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -4682,25 +4765,26 @@
       <c r="F77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="3" t="s">
+      <c r="G77" s="3"/>
+      <c r="H77" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>286</v>
-      </c>
+      <c r="I77" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J77" s="5"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>37.0</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -4709,13 +4793,14 @@
       <c r="F78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="3" t="s">
+      <c r="G78" s="3"/>
+      <c r="H78" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="I78" s="4" t="s">
-        <v>292</v>
-      </c>
+      <c r="I78" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J78" s="5"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
@@ -4727,7 +4812,7 @@
       <c r="C79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>38.0</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -4736,13 +4821,14 @@
       <c r="F79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="3" t="s">
+      <c r="G79" s="3"/>
+      <c r="H79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="J79" s="5"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
@@ -4754,7 +4840,7 @@
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>39.0</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -4763,13 +4849,14 @@
       <c r="F80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="3" t="s">
+      <c r="G80" s="3"/>
+      <c r="H80" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="J80" s="5"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
@@ -4781,7 +4868,7 @@
       <c r="C81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>40.0</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -4790,13 +4877,14 @@
       <c r="F81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="3" t="s">
+      <c r="G81" s="3"/>
+      <c r="H81" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I81" s="5" t="s">
         <v>300</v>
       </c>
+      <c r="J81" s="5"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
@@ -4808,7 +4896,7 @@
       <c r="C82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>41.0</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -4817,13 +4905,14 @@
       <c r="F82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="3" t="s">
+      <c r="G82" s="3"/>
+      <c r="H82" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="5" t="s">
         <v>304</v>
       </c>
+      <c r="J82" s="5"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
@@ -4835,7 +4924,7 @@
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>42.0</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -4844,13 +4933,14 @@
       <c r="F83" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="3" t="s">
+      <c r="G83" s="3"/>
+      <c r="H83" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I83" s="5" t="s">
         <v>308</v>
       </c>
+      <c r="J83" s="5"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
@@ -4862,7 +4952,7 @@
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>43.0</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -4871,13 +4961,14 @@
       <c r="F84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="3" t="s">
+      <c r="G84" s="3"/>
+      <c r="H84" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="5" t="s">
         <v>312</v>
       </c>
+      <c r="J84" s="5"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
@@ -4889,7 +4980,7 @@
       <c r="C85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>44.0</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -4898,13 +4989,14 @@
       <c r="F85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="3" t="s">
+      <c r="G85" s="3"/>
+      <c r="H85" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I85" s="5" t="s">
         <v>316</v>
       </c>
+      <c r="J85" s="5"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
@@ -4916,7 +5008,7 @@
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>45.0</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -4925,13 +5017,14 @@
       <c r="F86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="3" t="s">
+      <c r="G86" s="3"/>
+      <c r="H86" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I86" s="5" t="s">
         <v>320</v>
       </c>
+      <c r="J86" s="5"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
@@ -4943,7 +5036,7 @@
       <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>46.0</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -4952,13 +5045,14 @@
       <c r="F87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="3" t="s">
+      <c r="G87" s="3"/>
+      <c r="H87" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I87" s="5" t="s">
         <v>324</v>
       </c>
+      <c r="J87" s="5"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
@@ -4970,7 +5064,7 @@
       <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>47.0</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -4979,13 +5073,14 @@
       <c r="F88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="3" t="s">
+      <c r="G88" s="3"/>
+      <c r="H88" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="5" t="s">
         <v>328</v>
       </c>
+      <c r="J88" s="5"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
@@ -4997,7 +5092,7 @@
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>48.0</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -5006,13 +5101,14 @@
       <c r="F89" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="3" t="s">
+      <c r="G89" s="3"/>
+      <c r="H89" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="5" t="s">
         <v>332</v>
       </c>
+      <c r="J89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
@@ -5024,7 +5120,7 @@
       <c r="C90" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>49.0</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -5033,13 +5129,14 @@
       <c r="F90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="3" t="s">
+      <c r="G90" s="3"/>
+      <c r="H90" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I90" s="4" t="s">
+      <c r="I90" s="5" t="s">
         <v>336</v>
       </c>
+      <c r="J90" s="5"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
@@ -5051,7 +5148,7 @@
       <c r="C91" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>50.0</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -5060,13 +5157,14 @@
       <c r="F91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="3" t="s">
+      <c r="G91" s="3"/>
+      <c r="H91" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I91" s="4" t="s">
+      <c r="I91" s="5" t="s">
         <v>340</v>
       </c>
+      <c r="J91" s="5"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
@@ -5078,7 +5176,7 @@
       <c r="C92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>51.0</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -5087,13 +5185,14 @@
       <c r="F92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="3" t="s">
+      <c r="G92" s="3"/>
+      <c r="H92" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="I92" s="5" t="s">
         <v>344</v>
       </c>
+      <c r="J92" s="5"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
@@ -5105,7 +5204,7 @@
       <c r="C93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>52.0</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -5114,13 +5213,14 @@
       <c r="F93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="3" t="s">
+      <c r="G93" s="3"/>
+      <c r="H93" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I93" s="5" t="s">
         <v>348</v>
       </c>
+      <c r="J93" s="5"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
@@ -5132,7 +5232,7 @@
       <c r="C94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>53.0</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -5141,13 +5241,14 @@
       <c r="F94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="3" t="s">
+      <c r="G94" s="3"/>
+      <c r="H94" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="I94" s="5" t="s">
+      <c r="I94" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="J94" s="5"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
@@ -5159,7 +5260,7 @@
       <c r="C95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>54.0</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -5168,13 +5269,14 @@
       <c r="F95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="3" t="s">
+      <c r="G95" s="3"/>
+      <c r="H95" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="I95" s="5" t="s">
         <v>356</v>
       </c>
+      <c r="J95" s="5"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
@@ -5186,7 +5288,7 @@
       <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>55.0</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -5195,13 +5297,14 @@
       <c r="F96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="3" t="s">
+      <c r="G96" s="3"/>
+      <c r="H96" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="I96" s="4" t="s">
+      <c r="I96" s="6" t="s">
         <v>360</v>
       </c>
+      <c r="J96" s="5"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
@@ -5213,7 +5316,7 @@
       <c r="C97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>56.0</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -5222,13 +5325,14 @@
       <c r="F97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="3" t="s">
+      <c r="G97" s="3"/>
+      <c r="H97" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I97" s="5" t="s">
         <v>364</v>
       </c>
+      <c r="J97" s="5"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
@@ -5240,7 +5344,7 @@
       <c r="C98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>57.0</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -5249,13 +5353,14 @@
       <c r="F98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="3" t="s">
+      <c r="G98" s="3"/>
+      <c r="H98" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I98" s="5" t="s">
         <v>368</v>
       </c>
+      <c r="J98" s="5"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
@@ -5267,7 +5372,7 @@
       <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>58.0</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -5276,13 +5381,14 @@
       <c r="F99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="3" t="s">
+      <c r="G99" s="3"/>
+      <c r="H99" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I99" s="5" t="s">
         <v>372</v>
       </c>
+      <c r="J99" s="5"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
@@ -5294,7 +5400,7 @@
       <c r="C100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>59.0</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -5303,13 +5409,14 @@
       <c r="F100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="3" t="s">
+      <c r="G100" s="3"/>
+      <c r="H100" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I100" s="5" t="s">
         <v>376</v>
       </c>
+      <c r="J100" s="5"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
@@ -5321,7 +5428,7 @@
       <c r="C101" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>60.0</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -5330,13 +5437,14 @@
       <c r="F101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="3" t="s">
+      <c r="G101" s="3"/>
+      <c r="H101" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I101" s="5" t="s">
         <v>380</v>
       </c>
+      <c r="J101" s="5"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
@@ -5348,7 +5456,7 @@
       <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>61.0</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -5357,13 +5465,14 @@
       <c r="F102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="3" t="s">
+      <c r="G102" s="3"/>
+      <c r="H102" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I102" s="5" t="s">
         <v>384</v>
       </c>
+      <c r="J102" s="5"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
@@ -5375,7 +5484,7 @@
       <c r="C103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>62.0</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -5384,13 +5493,14 @@
       <c r="F103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G103" s="2"/>
-      <c r="H103" s="3" t="s">
+      <c r="G103" s="3"/>
+      <c r="H103" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I103" s="5" t="s">
         <v>388</v>
       </c>
+      <c r="J103" s="5"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
@@ -5402,7 +5512,7 @@
       <c r="C104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>63.0</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -5411,13 +5521,14 @@
       <c r="F104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="3" t="s">
+      <c r="G104" s="3"/>
+      <c r="H104" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="I104" s="5" t="s">
         <v>392</v>
       </c>
+      <c r="J104" s="5"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
@@ -5429,7 +5540,7 @@
       <c r="C105" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <v>64.0</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -5438,13 +5549,14 @@
       <c r="F105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="3" t="s">
+      <c r="G105" s="3"/>
+      <c r="H105" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="I105" s="4" t="s">
+      <c r="I105" s="6" t="s">
         <v>396</v>
       </c>
+      <c r="J105" s="5"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
@@ -5456,7 +5568,7 @@
       <c r="C106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>66.0</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -5465,13 +5577,14 @@
       <c r="F106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="3" t="s">
+      <c r="G106" s="3"/>
+      <c r="H106" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="I106" s="5" t="s">
         <v>400</v>
       </c>
+      <c r="J106" s="5"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
@@ -5483,7 +5596,7 @@
       <c r="C107" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>67.0</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -5492,13 +5605,14 @@
       <c r="F107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G107" s="2"/>
-      <c r="H107" s="3" t="s">
+      <c r="G107" s="3"/>
+      <c r="H107" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="I107" s="5" t="s">
         <v>404</v>
       </c>
+      <c r="J107" s="5"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
@@ -5510,7 +5624,7 @@
       <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>69.0</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -5519,13 +5633,14 @@
       <c r="F108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G108" s="2"/>
-      <c r="H108" s="3" t="s">
+      <c r="G108" s="3"/>
+      <c r="H108" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="I108" s="4" t="s">
+      <c r="I108" s="5" t="s">
         <v>408</v>
       </c>
+      <c r="J108" s="5"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
@@ -5537,7 +5652,7 @@
       <c r="C109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <v>70.0</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -5546,13 +5661,14 @@
       <c r="F109" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="3" t="s">
+      <c r="G109" s="3"/>
+      <c r="H109" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="I109" s="5" t="s">
         <v>412</v>
       </c>
+      <c r="J109" s="5"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
@@ -5564,7 +5680,7 @@
       <c r="C110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>71.0</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -5573,13 +5689,14 @@
       <c r="F110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="3" t="s">
+      <c r="G110" s="3"/>
+      <c r="H110" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="I110" s="4" t="s">
+      <c r="I110" s="5" t="s">
         <v>404</v>
       </c>
+      <c r="J110" s="5"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
@@ -5591,7 +5708,7 @@
       <c r="C111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <v>72.0</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -5600,13 +5717,14 @@
       <c r="F111" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G111" s="2"/>
-      <c r="H111" s="3" t="s">
+      <c r="G111" s="3"/>
+      <c r="H111" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="I111" s="4" t="s">
+      <c r="I111" s="5" t="s">
         <v>418</v>
       </c>
+      <c r="J111" s="5"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
@@ -5618,7 +5736,7 @@
       <c r="C112" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>73.0</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -5627,13 +5745,14 @@
       <c r="F112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G112" s="2"/>
-      <c r="H112" s="3" t="s">
+      <c r="G112" s="3"/>
+      <c r="H112" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="I112" s="4" t="s">
+      <c r="I112" s="5" t="s">
         <v>422</v>
       </c>
+      <c r="J112" s="5"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
@@ -5645,7 +5764,7 @@
       <c r="C113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>74.0</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -5654,13 +5773,14 @@
       <c r="F113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="3" t="s">
+      <c r="G113" s="3"/>
+      <c r="H113" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="I113" s="4" t="s">
+      <c r="I113" s="5" t="s">
         <v>426</v>
       </c>
+      <c r="J113" s="5"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
@@ -5672,7 +5792,7 @@
       <c r="C114" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="2">
         <v>75.0</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -5681,13 +5801,14 @@
       <c r="F114" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="3" t="s">
+      <c r="G114" s="3"/>
+      <c r="H114" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="I114" s="4" t="s">
+      <c r="I114" s="5" t="s">
         <v>430</v>
       </c>
+      <c r="J114" s="5"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
@@ -5699,7 +5820,7 @@
       <c r="C115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>76.0</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -5708,13 +5829,14 @@
       <c r="F115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="3" t="s">
+      <c r="G115" s="3"/>
+      <c r="H115" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I115" s="5" t="s">
         <v>434</v>
       </c>
+      <c r="J115" s="5"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
@@ -5726,7 +5848,7 @@
       <c r="C116" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <v>77.0</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -5735,2495 +5857,2496 @@
       <c r="F116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="3" t="s">
+      <c r="G116" s="3"/>
+      <c r="H116" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="I116" s="4" t="s">
+      <c r="I116" s="5" t="s">
         <v>438</v>
       </c>
+      <c r="J116" s="5"/>
     </row>
     <row r="117">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="9">
         <v>8.0</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G117" s="6"/>
-      <c r="H117" s="8" t="s">
+      <c r="G117" s="8"/>
+      <c r="H117" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="I117" s="6" t="s">
+      <c r="I117" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="9">
         <v>9.0</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="8" t="s">
+      <c r="G118" s="8"/>
+      <c r="H118" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="I118" s="6" t="s">
+      <c r="I118" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="9">
         <v>10.0</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="8" t="s">
+      <c r="G119" s="8"/>
+      <c r="H119" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="I119" s="6" t="s">
+      <c r="I119" s="8" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="9">
         <v>11.0</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="8" t="s">
+      <c r="G120" s="8"/>
+      <c r="H120" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="I120" s="6" t="s">
+      <c r="I120" s="8" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="9">
         <v>12.0</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F121" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G121" s="6"/>
-      <c r="H121" s="8" t="s">
+      <c r="G121" s="8"/>
+      <c r="H121" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="I121" s="6" t="s">
+      <c r="I121" s="8" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="9">
         <v>13.0</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F122" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G122" s="6"/>
-      <c r="H122" s="8" t="s">
+      <c r="G122" s="8"/>
+      <c r="H122" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="I122" s="6" t="s">
+      <c r="I122" s="8" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="9">
         <v>14.0</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="F123" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="8" t="s">
+      <c r="G123" s="8"/>
+      <c r="H123" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="I123" s="6" t="s">
+      <c r="I123" s="8" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="9">
         <v>15.0</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G124" s="6"/>
-      <c r="H124" s="8" t="s">
+      <c r="G124" s="8"/>
+      <c r="H124" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="I124" s="6" t="s">
+      <c r="I124" s="8" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="9">
         <v>16.0</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F125" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G125" s="6"/>
-      <c r="H125" s="8" t="s">
+      <c r="G125" s="8"/>
+      <c r="H125" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="I125" s="6" t="s">
+      <c r="I125" s="8" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="9">
         <v>17.0</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="F126" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G126" s="6"/>
-      <c r="H126" s="8" t="s">
+      <c r="G126" s="8"/>
+      <c r="H126" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="I126" s="6" t="s">
+      <c r="I126" s="8" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="9">
         <v>18.0</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="F127" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G127" s="6"/>
-      <c r="H127" s="8" t="s">
+      <c r="G127" s="8"/>
+      <c r="H127" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="I127" s="6" t="s">
+      <c r="I127" s="8" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128" s="9">
         <v>19.0</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="F128" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="8" t="s">
+      <c r="G128" s="8"/>
+      <c r="H128" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="I128" s="6" t="s">
+      <c r="I128" s="8" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129" s="9">
         <v>20.0</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E129" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="F129" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G129" s="6"/>
-      <c r="H129" s="8" t="s">
+      <c r="G129" s="8"/>
+      <c r="H129" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="I129" s="6" t="s">
+      <c r="I129" s="8" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="9">
         <v>21.0</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E130" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="F130" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G130" s="6"/>
-      <c r="H130" s="8" t="s">
+      <c r="G130" s="8"/>
+      <c r="H130" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="I130" s="6" t="s">
+      <c r="I130" s="8" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D131" s="9">
         <v>8.0</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="F131" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="8" t="s">
+      <c r="G131" s="8"/>
+      <c r="H131" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="I131" s="10" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="9">
         <v>8.0</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="F132" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G132" s="6"/>
-      <c r="H132" s="8" t="s">
+      <c r="G132" s="8"/>
+      <c r="H132" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="I132" s="8" t="s">
+      <c r="I132" s="10" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="9">
         <v>8.0</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F133" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G133" s="6"/>
-      <c r="H133" s="8" t="s">
+      <c r="G133" s="8"/>
+      <c r="H133" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="I133" s="8" t="s">
+      <c r="I133" s="10" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="9">
         <v>9.0</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="F134" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G134" s="6"/>
-      <c r="H134" s="8" t="s">
+      <c r="G134" s="8"/>
+      <c r="H134" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I134" s="8" t="s">
+      <c r="I134" s="10" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="9">
         <v>9.0</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="F135" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G135" s="6"/>
-      <c r="H135" s="8" t="s">
+      <c r="G135" s="8"/>
+      <c r="H135" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="I135" s="8" t="s">
+      <c r="I135" s="10" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="9">
         <v>9.0</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="F136" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G136" s="6"/>
-      <c r="H136" s="8" t="s">
+      <c r="G136" s="8"/>
+      <c r="H136" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="I136" s="8" t="s">
+      <c r="I136" s="10" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="9">
         <v>10.0</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="F137" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G137" s="6"/>
-      <c r="H137" s="8" t="s">
+      <c r="G137" s="8"/>
+      <c r="H137" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="I137" s="8" t="s">
+      <c r="I137" s="10" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="9">
         <v>10.0</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="F138" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G138" s="6"/>
-      <c r="H138" s="8" t="s">
+      <c r="G138" s="8"/>
+      <c r="H138" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I138" s="8" t="s">
+      <c r="I138" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="9">
         <v>10.0</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="F139" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G139" s="6"/>
-      <c r="H139" s="8" t="s">
+      <c r="G139" s="8"/>
+      <c r="H139" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="I139" s="8" t="s">
+      <c r="I139" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="9">
         <v>11.0</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="F140" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G140" s="6"/>
-      <c r="H140" s="8" t="s">
+      <c r="G140" s="8"/>
+      <c r="H140" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="I140" s="8" t="s">
+      <c r="I140" s="10" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="9">
         <v>11.0</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="F141" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G141" s="6"/>
-      <c r="H141" s="8" t="s">
+      <c r="G141" s="8"/>
+      <c r="H141" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="I141" s="8" t="s">
+      <c r="I141" s="10" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="9">
         <v>11.0</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F142" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G142" s="6"/>
-      <c r="H142" s="8" t="s">
+      <c r="G142" s="8"/>
+      <c r="H142" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="I142" s="8" t="s">
+      <c r="I142" s="10" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="9">
         <v>12.0</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="F143" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G143" s="6"/>
-      <c r="H143" s="8" t="s">
+      <c r="G143" s="8"/>
+      <c r="H143" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="I143" s="8" t="s">
+      <c r="I143" s="10" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="9">
         <v>12.0</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="F144" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G144" s="6"/>
-      <c r="H144" s="8" t="s">
+      <c r="G144" s="8"/>
+      <c r="H144" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="I144" s="8" t="s">
+      <c r="I144" s="10" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="9">
         <v>12.0</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="F145" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G145" s="6"/>
-      <c r="H145" s="8" t="s">
+      <c r="G145" s="8"/>
+      <c r="H145" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="I145" s="8" t="s">
+      <c r="I145" s="10" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="9">
         <v>13.0</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E146" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="F146" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G146" s="6"/>
-      <c r="H146" s="8" t="s">
+      <c r="G146" s="8"/>
+      <c r="H146" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="I146" s="8" t="s">
+      <c r="I146" s="10" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="9">
         <v>13.0</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="F147" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G147" s="6"/>
-      <c r="H147" s="8" t="s">
+      <c r="G147" s="8"/>
+      <c r="H147" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="I147" s="8" t="s">
+      <c r="I147" s="10" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D148" s="9">
         <v>13.0</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F148" s="6" t="s">
+      <c r="F148" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G148" s="6"/>
-      <c r="H148" s="8" t="s">
+      <c r="G148" s="8"/>
+      <c r="H148" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="I148" s="9" t="s">
+      <c r="I148" s="11" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D149" s="9">
         <v>14.0</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="F149" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G149" s="6"/>
-      <c r="H149" s="8" t="s">
+      <c r="G149" s="8"/>
+      <c r="H149" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="I149" s="8" t="s">
+      <c r="I149" s="10" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="9">
         <v>14.0</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F150" s="6" t="s">
+      <c r="F150" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G150" s="6"/>
-      <c r="H150" s="8" t="s">
+      <c r="G150" s="8"/>
+      <c r="H150" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I150" s="8" t="s">
+      <c r="I150" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="9">
         <v>14.0</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="E151" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F151" s="6" t="s">
+      <c r="F151" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G151" s="6"/>
-      <c r="H151" s="8" t="s">
+      <c r="G151" s="8"/>
+      <c r="H151" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="I151" s="8" t="s">
+      <c r="I151" s="10" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="9">
         <v>15.0</v>
       </c>
-      <c r="E152" s="6" t="s">
+      <c r="E152" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="F152" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G152" s="6"/>
-      <c r="H152" s="8" t="s">
+      <c r="G152" s="8"/>
+      <c r="H152" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="I152" s="8" t="s">
+      <c r="I152" s="10" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153" s="9">
         <v>15.0</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E153" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="F153" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G153" s="6"/>
-      <c r="H153" s="8" t="s">
+      <c r="G153" s="8"/>
+      <c r="H153" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I153" s="8" t="s">
+      <c r="I153" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154" s="9">
         <v>15.0</v>
       </c>
-      <c r="E154" s="6" t="s">
+      <c r="E154" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="F154" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G154" s="6"/>
-      <c r="H154" s="8" t="s">
+      <c r="G154" s="8"/>
+      <c r="H154" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="I154" s="9" t="s">
+      <c r="I154" s="11" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D155" s="9">
         <v>16.0</v>
       </c>
-      <c r="E155" s="6" t="s">
+      <c r="E155" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="F155" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G155" s="6"/>
-      <c r="H155" s="8" t="s">
+      <c r="G155" s="8"/>
+      <c r="H155" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="I155" s="8" t="s">
+      <c r="I155" s="10" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156" s="9">
         <v>16.0</v>
       </c>
-      <c r="E156" s="6" t="s">
+      <c r="E156" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F156" s="6" t="s">
+      <c r="F156" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G156" s="6"/>
-      <c r="H156" s="8" t="s">
+      <c r="G156" s="8"/>
+      <c r="H156" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I156" s="8" t="s">
+      <c r="I156" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157" s="9">
         <v>16.0</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="F157" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G157" s="6"/>
-      <c r="H157" s="8" t="s">
+      <c r="G157" s="8"/>
+      <c r="H157" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="I157" s="9" t="s">
+      <c r="I157" s="11" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158" s="9">
         <v>17.0</v>
       </c>
-      <c r="E158" s="6" t="s">
+      <c r="E158" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F158" s="6" t="s">
+      <c r="F158" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G158" s="6"/>
-      <c r="H158" s="8" t="s">
+      <c r="G158" s="8"/>
+      <c r="H158" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="I158" s="8" t="s">
+      <c r="I158" s="10" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D159" s="7">
+      <c r="D159" s="9">
         <v>17.0</v>
       </c>
-      <c r="E159" s="6" t="s">
+      <c r="E159" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F159" s="6" t="s">
+      <c r="F159" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G159" s="6"/>
-      <c r="H159" s="8" t="s">
+      <c r="G159" s="8"/>
+      <c r="H159" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="I159" s="8" t="s">
+      <c r="I159" s="10" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D160" s="9">
         <v>17.0</v>
       </c>
-      <c r="E160" s="6" t="s">
+      <c r="E160" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="F160" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G160" s="6"/>
-      <c r="H160" s="8" t="s">
+      <c r="G160" s="8"/>
+      <c r="H160" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="I160" s="8" t="s">
+      <c r="I160" s="10" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D161" s="7">
+      <c r="D161" s="9">
         <v>18.0</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="F161" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G161" s="6"/>
-      <c r="H161" s="8" t="s">
+      <c r="G161" s="8"/>
+      <c r="H161" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="I161" s="8" t="s">
+      <c r="I161" s="10" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D162" s="7">
+      <c r="D162" s="9">
         <v>18.0</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="E162" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F162" s="6" t="s">
+      <c r="F162" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G162" s="6"/>
-      <c r="H162" s="8" t="s">
+      <c r="G162" s="8"/>
+      <c r="H162" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="I162" s="8" t="s">
+      <c r="I162" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D163" s="7">
+      <c r="D163" s="9">
         <v>18.0</v>
       </c>
-      <c r="E163" s="6" t="s">
+      <c r="E163" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="F163" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G163" s="6"/>
-      <c r="H163" s="8" t="s">
+      <c r="G163" s="8"/>
+      <c r="H163" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="I163" s="8" t="s">
+      <c r="I163" s="10" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D164" s="7">
+      <c r="D164" s="9">
         <v>19.0</v>
       </c>
-      <c r="E164" s="6" t="s">
+      <c r="E164" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="F164" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G164" s="6"/>
-      <c r="H164" s="8" t="s">
+      <c r="G164" s="8"/>
+      <c r="H164" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="I164" s="8" t="s">
+      <c r="I164" s="10" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D165" s="7">
+      <c r="D165" s="9">
         <v>19.0</v>
       </c>
-      <c r="E165" s="6" t="s">
+      <c r="E165" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F165" s="6" t="s">
+      <c r="F165" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G165" s="6"/>
-      <c r="H165" s="8" t="s">
+      <c r="G165" s="8"/>
+      <c r="H165" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I165" s="8" t="s">
+      <c r="I165" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D166" s="7">
+      <c r="D166" s="9">
         <v>19.0</v>
       </c>
-      <c r="E166" s="6" t="s">
+      <c r="E166" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F166" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G166" s="6"/>
-      <c r="H166" s="8" t="s">
+      <c r="G166" s="8"/>
+      <c r="H166" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="I166" s="8" t="s">
+      <c r="I166" s="10" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D167" s="7">
+      <c r="D167" s="9">
         <v>20.0</v>
       </c>
-      <c r="E167" s="6" t="s">
+      <c r="E167" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="F167" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G167" s="6"/>
-      <c r="H167" s="8" t="s">
+      <c r="G167" s="8"/>
+      <c r="H167" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="I167" s="8" t="s">
+      <c r="I167" s="10" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D168" s="7">
+      <c r="D168" s="9">
         <v>20.0</v>
       </c>
-      <c r="E168" s="6" t="s">
+      <c r="E168" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="F168" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G168" s="6"/>
-      <c r="H168" s="8" t="s">
+      <c r="G168" s="8"/>
+      <c r="H168" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="I168" s="8" t="s">
+      <c r="I168" s="10" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="7">
+      <c r="D169" s="9">
         <v>20.0</v>
       </c>
-      <c r="E169" s="6" t="s">
+      <c r="E169" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="F169" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G169" s="6"/>
-      <c r="H169" s="8" t="s">
+      <c r="G169" s="8"/>
+      <c r="H169" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="I169" s="8" t="s">
+      <c r="I169" s="10" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D170" s="7">
+      <c r="D170" s="9">
         <v>21.0</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E170" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F170" s="6" t="s">
+      <c r="F170" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G170" s="6"/>
-      <c r="H170" s="8" t="s">
+      <c r="G170" s="8"/>
+      <c r="H170" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="I170" s="8" t="s">
+      <c r="I170" s="10" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D171" s="7">
+      <c r="D171" s="9">
         <v>21.0</v>
       </c>
-      <c r="E171" s="6" t="s">
+      <c r="E171" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F171" s="6" t="s">
+      <c r="F171" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G171" s="6"/>
-      <c r="H171" s="8" t="s">
+      <c r="G171" s="8"/>
+      <c r="H171" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="I171" s="8" t="s">
+      <c r="I171" s="10" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D172" s="7">
+      <c r="D172" s="9">
         <v>21.0</v>
       </c>
-      <c r="E172" s="6" t="s">
+      <c r="E172" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="F172" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G172" s="6"/>
-      <c r="H172" s="8" t="s">
+      <c r="G172" s="8"/>
+      <c r="H172" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="I172" s="8" t="s">
+      <c r="I172" s="10" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D173" s="7">
+      <c r="D173" s="9">
         <v>22.0</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F173" s="6" t="s">
+      <c r="F173" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G173" s="6"/>
-      <c r="H173" s="8" t="s">
+      <c r="G173" s="8"/>
+      <c r="H173" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="I173" s="8" t="s">
+      <c r="I173" s="10" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D174" s="7">
+      <c r="D174" s="9">
         <v>22.0</v>
       </c>
-      <c r="E174" s="6" t="s">
+      <c r="E174" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="F174" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G174" s="6"/>
-      <c r="H174" s="8" t="s">
+      <c r="G174" s="8"/>
+      <c r="H174" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="I174" s="8" t="s">
+      <c r="I174" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D175" s="7">
+      <c r="D175" s="9">
         <v>22.0</v>
       </c>
-      <c r="E175" s="6" t="s">
+      <c r="E175" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F175" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G175" s="6"/>
-      <c r="H175" s="8" t="s">
+      <c r="G175" s="8"/>
+      <c r="H175" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="I175" s="8" t="s">
+      <c r="I175" s="10" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D176" s="7">
+      <c r="D176" s="9">
         <v>23.0</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="E176" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="F176" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G176" s="6"/>
-      <c r="H176" s="8" t="s">
+      <c r="G176" s="8"/>
+      <c r="H176" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="I176" s="8" t="s">
+      <c r="I176" s="10" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D177" s="7">
+      <c r="D177" s="9">
         <v>23.0</v>
       </c>
-      <c r="E177" s="6" t="s">
+      <c r="E177" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="F177" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G177" s="6"/>
-      <c r="H177" s="8" t="s">
+      <c r="G177" s="8"/>
+      <c r="H177" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="I177" s="8" t="s">
+      <c r="I177" s="10" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="6" t="s">
+      <c r="A178" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D178" s="7">
+      <c r="D178" s="9">
         <v>23.0</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="E178" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F178" s="6" t="s">
+      <c r="F178" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G178" s="6"/>
-      <c r="H178" s="8" t="s">
+      <c r="G178" s="8"/>
+      <c r="H178" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="I178" s="8" t="s">
+      <c r="I178" s="10" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D179" s="7">
+      <c r="D179" s="9">
         <v>24.0</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="E179" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="F179" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G179" s="6"/>
-      <c r="H179" s="8" t="s">
+      <c r="G179" s="8"/>
+      <c r="H179" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="I179" s="8" t="s">
+      <c r="I179" s="10" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D180" s="7">
+      <c r="D180" s="9">
         <v>24.0</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="E180" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F180" s="6" t="s">
+      <c r="F180" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G180" s="6"/>
-      <c r="H180" s="8" t="s">
+      <c r="G180" s="8"/>
+      <c r="H180" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="I180" s="8" t="s">
+      <c r="I180" s="10" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D181" s="7">
+      <c r="D181" s="9">
         <v>24.0</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="E181" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F181" s="6" t="s">
+      <c r="F181" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G181" s="6"/>
-      <c r="H181" s="8" t="s">
+      <c r="G181" s="8"/>
+      <c r="H181" s="10" t="s">
         <v>681</v>
       </c>
-      <c r="I181" s="8" t="s">
+      <c r="I181" s="10" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D182" s="7">
+      <c r="D182" s="9">
         <v>25.0</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="E182" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F182" s="6" t="s">
+      <c r="F182" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G182" s="6"/>
-      <c r="H182" s="8" t="s">
+      <c r="G182" s="8"/>
+      <c r="H182" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="I182" s="8" t="s">
+      <c r="I182" s="10" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D183" s="7">
+      <c r="D183" s="9">
         <v>25.0</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E183" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="F183" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G183" s="6"/>
-      <c r="H183" s="8" t="s">
+      <c r="G183" s="8"/>
+      <c r="H183" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I183" s="8" t="s">
+      <c r="I183" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D184" s="7">
+      <c r="D184" s="9">
         <v>25.0</v>
       </c>
-      <c r="E184" s="6" t="s">
+      <c r="E184" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F184" s="6" t="s">
+      <c r="F184" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G184" s="6"/>
-      <c r="H184" s="8" t="s">
+      <c r="G184" s="8"/>
+      <c r="H184" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="I184" s="8" t="s">
+      <c r="I184" s="10" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D185" s="7">
+      <c r="D185" s="9">
         <v>26.0</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="E185" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="F185" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G185" s="6"/>
-      <c r="H185" s="8" t="s">
+      <c r="G185" s="8"/>
+      <c r="H185" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="I185" s="8" t="s">
+      <c r="I185" s="10" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D186" s="7">
+      <c r="D186" s="9">
         <v>26.0</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="E186" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="F186" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G186" s="6"/>
-      <c r="H186" s="8" t="s">
+      <c r="G186" s="8"/>
+      <c r="H186" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="I186" s="8" t="s">
+      <c r="I186" s="10" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D187" s="7">
+      <c r="D187" s="9">
         <v>26.0</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="E187" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F187" s="6" t="s">
+      <c r="F187" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G187" s="6"/>
-      <c r="H187" s="8" t="s">
+      <c r="G187" s="8"/>
+      <c r="H187" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="I187" s="8" t="s">
+      <c r="I187" s="10" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D188" s="7">
+      <c r="D188" s="9">
         <v>27.0</v>
       </c>
-      <c r="E188" s="6" t="s">
+      <c r="E188" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F188" s="6" t="s">
+      <c r="F188" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G188" s="6"/>
-      <c r="H188" s="8" t="s">
+      <c r="G188" s="8"/>
+      <c r="H188" s="10" t="s">
         <v>707</v>
       </c>
-      <c r="I188" s="8" t="s">
+      <c r="I188" s="10" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D189" s="7">
+      <c r="D189" s="9">
         <v>27.0</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="E189" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="F189" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G189" s="6"/>
-      <c r="H189" s="8" t="s">
+      <c r="G189" s="8"/>
+      <c r="H189" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="I189" s="8" t="s">
+      <c r="I189" s="10" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D190" s="7">
+      <c r="D190" s="9">
         <v>27.0</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="E190" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F190" s="6" t="s">
+      <c r="F190" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G190" s="6"/>
-      <c r="H190" s="8" t="s">
+      <c r="G190" s="8"/>
+      <c r="H190" s="10" t="s">
         <v>713</v>
       </c>
-      <c r="I190" s="8" t="s">
+      <c r="I190" s="10" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D191" s="7">
+      <c r="D191" s="9">
         <v>28.0</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="E191" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="F191" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G191" s="6"/>
-      <c r="H191" s="8" t="s">
+      <c r="G191" s="8"/>
+      <c r="H191" s="10" t="s">
         <v>717</v>
       </c>
-      <c r="I191" s="8" t="s">
+      <c r="I191" s="10" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D192" s="7">
+      <c r="D192" s="9">
         <v>28.0</v>
       </c>
-      <c r="E192" s="6" t="s">
+      <c r="E192" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F192" s="6" t="s">
+      <c r="F192" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G192" s="6"/>
-      <c r="H192" s="8" t="s">
+      <c r="G192" s="8"/>
+      <c r="H192" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="I192" s="8" t="s">
+      <c r="I192" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D193" s="7">
+      <c r="D193" s="9">
         <v>28.0</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="E193" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F193" s="6" t="s">
+      <c r="F193" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G193" s="6"/>
-      <c r="H193" s="8" t="s">
+      <c r="G193" s="8"/>
+      <c r="H193" s="10" t="s">
         <v>723</v>
       </c>
-      <c r="I193" s="8" t="s">
+      <c r="I193" s="10" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C194" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D194" s="7">
+      <c r="D194" s="9">
         <v>29.0</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="E194" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="F194" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G194" s="6"/>
-      <c r="H194" s="8" t="s">
+      <c r="G194" s="8"/>
+      <c r="H194" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="I194" s="8" t="s">
+      <c r="I194" s="10" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D195" s="7">
+      <c r="D195" s="9">
         <v>29.0</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="E195" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F195" s="6" t="s">
+      <c r="F195" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G195" s="6"/>
-      <c r="H195" s="8" t="s">
+      <c r="G195" s="8"/>
+      <c r="H195" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="I195" s="8" t="s">
+      <c r="I195" s="10" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D196" s="7">
+      <c r="D196" s="9">
         <v>29.0</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="E196" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="F196" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G196" s="6"/>
-      <c r="H196" s="8" t="s">
+      <c r="G196" s="8"/>
+      <c r="H196" s="10" t="s">
         <v>733</v>
       </c>
-      <c r="I196" s="9" t="s">
+      <c r="I196" s="11" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D197" s="7">
+      <c r="D197" s="9">
         <v>30.0</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="E197" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F197" s="6" t="s">
+      <c r="F197" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G197" s="6"/>
-      <c r="H197" s="8" t="s">
+      <c r="G197" s="8"/>
+      <c r="H197" s="10" t="s">
         <v>737</v>
       </c>
-      <c r="I197" s="8" t="s">
+      <c r="I197" s="10" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D198" s="7">
+      <c r="D198" s="9">
         <v>30.0</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="E198" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F198" s="6" t="s">
+      <c r="F198" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="6"/>
-      <c r="H198" s="8" t="s">
+      <c r="G198" s="8"/>
+      <c r="H198" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I198" s="8" t="s">
+      <c r="I198" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D199" s="7">
+      <c r="D199" s="9">
         <v>30.0</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="E199" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F199" s="6" t="s">
+      <c r="F199" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G199" s="6"/>
-      <c r="H199" s="8" t="s">
+      <c r="G199" s="8"/>
+      <c r="H199" s="10" t="s">
         <v>743</v>
       </c>
-      <c r="I199" s="8" t="s">
+      <c r="I199" s="10" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D200" s="7">
+      <c r="D200" s="9">
         <v>31.0</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="E200" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F200" s="6" t="s">
+      <c r="F200" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G200" s="6"/>
-      <c r="H200" s="8" t="s">
+      <c r="G200" s="8"/>
+      <c r="H200" s="10" t="s">
         <v>747</v>
       </c>
-      <c r="I200" s="8" t="s">
+      <c r="I200" s="10" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D201" s="7">
+      <c r="D201" s="9">
         <v>31.0</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="E201" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F201" s="6" t="s">
+      <c r="F201" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G201" s="6"/>
-      <c r="H201" s="8" t="s">
+      <c r="G201" s="8"/>
+      <c r="H201" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I201" s="8" t="s">
+      <c r="I201" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D202" s="7">
+      <c r="D202" s="9">
         <v>31.0</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="E202" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F202" s="6" t="s">
+      <c r="F202" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G202" s="6"/>
-      <c r="H202" s="8" t="s">
+      <c r="G202" s="8"/>
+      <c r="H202" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="I202" s="8" t="s">
+      <c r="I202" s="10" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D203" s="7">
+      <c r="D203" s="9">
         <v>32.0</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="E203" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F203" s="6" t="s">
+      <c r="F203" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G203" s="6"/>
-      <c r="H203" s="8" t="s">
+      <c r="G203" s="8"/>
+      <c r="H203" s="10" t="s">
         <v>757</v>
       </c>
-      <c r="I203" s="8" t="s">
+      <c r="I203" s="10" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D204" s="7">
+      <c r="D204" s="9">
         <v>32.0</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="E204" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F204" s="6" t="s">
+      <c r="F204" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G204" s="6"/>
-      <c r="H204" s="8" t="s">
+      <c r="G204" s="8"/>
+      <c r="H204" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I204" s="8" t="s">
+      <c r="I204" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D205" s="7">
+      <c r="D205" s="9">
         <v>32.0</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="E205" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F205" s="6" t="s">
+      <c r="F205" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G205" s="6"/>
-      <c r="H205" s="8" t="s">
+      <c r="G205" s="8"/>
+      <c r="H205" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="I205" s="8" t="s">
+      <c r="I205" s="10" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D206" s="7">
+      <c r="D206" s="9">
         <v>33.0</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="E206" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F206" s="6" t="s">
+      <c r="F206" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="G206" s="6"/>
-      <c r="H206" s="8" t="s">
+      <c r="G206" s="8"/>
+      <c r="H206" s="10" t="s">
         <v>765</v>
       </c>
-      <c r="I206" s="8" t="s">
+      <c r="I206" s="10" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C207" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D207" s="7">
+      <c r="D207" s="9">
         <v>33.0</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="E207" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F207" s="6" t="s">
+      <c r="F207" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G207" s="6"/>
-      <c r="H207" s="8" t="s">
+      <c r="G207" s="8"/>
+      <c r="H207" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I207" s="8" t="s">
+      <c r="I207" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C208" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="D208" s="7">
+      <c r="D208" s="9">
         <v>33.0</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="E208" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="F208" s="6" t="s">
+      <c r="F208" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G208" s="6"/>
-      <c r="H208" s="8" t="s">
+      <c r="G208" s="8"/>
+      <c r="H208" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="I208" s="8" t="s">
+      <c r="I208" s="10" t="s">
         <v>754</v>
       </c>
     </row>

--- a/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Gameplay_ActorAttrType&CardType&TrinketSuitEffect_250826.xlsx
+++ b/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Gameplay_ActorAttrType&CardType&TrinketSuitEffect_250826.xlsx
@@ -1975,7 +1975,7 @@
     <t>生机榨取</t>
   </si>
   <si>
-    <t>생명력 흡수</t>
+    <t>생명력 착취</t>
   </si>
   <si>
     <t>TrinketSuitEffect_18347_SuitEffectDesc_1</t>
